--- a/orders_details.xlsx
+++ b/orders_details.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,37 +434,40 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>order_id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>product_symbol</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>size</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>side</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>commission</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Stoploss</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Entry_price</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Take_profit</t>
         </is>
@@ -475,575 +478,171 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3560444761</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>BTCUSDT</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.155136</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>64500</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>&lt;bound method Delat.take_profit of &lt;__main__.Delat object at 0x00000251035F95E0&gt;&gt;</t>
-        </is>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>3560445751</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>BTCUSDT</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.155136</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>64500</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>&lt;bound method Delat.take_profit of &lt;__main__.Delat object at 0x00000251035F95E0&gt;&gt;</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3560446714</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>BTCUSDT</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.155136</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>64500</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>&lt;bound method Delat.take_profit of &lt;__main__.Delat object at 0x00000251035F95E0&gt;&gt;</t>
-        </is>
-      </c>
+        <v>3493626021</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>3560447997</v>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>BTCUSDT</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.155116608</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>64492.5</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>&lt;bound method Delat.take_profit of &lt;__main__.Delat object at 0x00000251035F95E0&gt;&gt;</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3560449156</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>BTCUSDT</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
         <v>2</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.15509964</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>64485</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>&lt;bound method Delat.take_profit of &lt;__main__.Delat object at 0x00000251035F95E0&gt;&gt;</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>3560449959</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>BTCUSDT</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>sell</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.15509964</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>64485</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>&lt;bound method Delat.take_profit of &lt;__main__.Delat object at 0x00000251035F95E0&gt;&gt;</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3560451051</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>BTCUSDT</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.15509964</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>64485</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>&lt;bound method Delat.take_profit of &lt;__main__.Delat object at 0x00000251035F95E0&gt;&gt;</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3560451460</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>BTCUSDT</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.15509964</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>64485</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>&lt;bound method Delat.take_profit of &lt;__main__.Delat object at 0x00000251035F95E0&gt;&gt;</t>
-        </is>
-      </c>
+        <v>63288</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3560452236</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>BTCUSDT</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.15509964</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>64485</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>&lt;bound method Delat.take_profit of &lt;__main__.Delat object at 0x00000251035F95E0&gt;&gt;</t>
-        </is>
-      </c>
+        <v>60000</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>3560452985</v>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>3493626021</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>BTCUSDT</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>2</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>sell</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.155097216</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>64484.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>&lt;bound method Delat.take_profit of &lt;__main__.Delat object at 0x00000251035F95E0&gt;&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3560453642</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>BTCUSDT</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.155097216</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>64484</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>&lt;bound method Delat.take_profit of &lt;__main__.Delat object at 0x00000251035F95E0&gt;&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3560454139</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>BTCUSDT</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.155094792</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>64483</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>&lt;bound method Delat.take_profit of &lt;__main__.Delat object at 0x00000251035F95E0&gt;&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3560454264</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>BTCUSDT</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.155094792</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>64483</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>&lt;bound method Delat.take_profit of &lt;__main__.Delat object at 0x00000251035F95E0&gt;&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>3560454444</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>BTCUSDT</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.15506328</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>64470.5</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>&lt;bound method Delat.take_profit of &lt;__main__.Delat object at 0x00000251035F95E0&gt;&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>3560454777</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>BTCUSDT</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.15506328</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>64470.5</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>&lt;bound method Delat.take_profit of &lt;__main__.Delat object at 0x00000251035F95E0&gt;&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>3560455400</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>BTCUSDT</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.15505116</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>64465.5</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>&lt;bound method Delat.take_profit of &lt;__main__.Delat object at 0x00000251035F95E0&gt;&gt;</t>
-        </is>
+          <t>63288</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>60000</v>
       </c>
     </row>
   </sheetData>
